--- a/biology/Zoologie/Hemicrepidius_hirtus/Hemicrepidius_hirtus.xlsx
+++ b/biology/Zoologie/Hemicrepidius_hirtus/Hemicrepidius_hirtus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hemicrepidius hirtus, l'athous poilu,  est une espèce d'insectes de l'ordre des coléoptères et de la famille des élatéridés.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet insecte mesure de 11 à 17 mm de longueur. Il est noir avec une légère pubescence argentée. Ses antennes possèdent des articles triangulaires. Les côtés du pronotum sont arrondis; les angles postérieurs, courts. Les élytres sont striés[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet insecte mesure de 11 à 17 mm de longueur. Il est noir avec une légère pubescence argentée. Ses antennes possèdent des articles triangulaires. Les côtés du pronotum sont arrondis; les angles postérieurs, courts. Les élytres sont striés.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La larve se développe dans les souches. On rencontre Hemicrepidius hirtus en plaine et montagne jusqu'à 1 500 m d'altitude.
 Ce taupin vit sur les plantes basses, les feuilles des arbres et les fleurs des arbustes.
@@ -574,7 +590,9 @@
           <t>Mœurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vole par temps orageux[réf. nécessaire] et il est visible [Où ?] de mai à mi-août.
 </t>
@@ -605,7 +623,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Pseudathous hirtus
 Athous hirtus</t>
